--- a/config/contract_excel/Contractual-Employees.xlsx
+++ b/config/contract_excel/Contractual-Employees.xlsx
@@ -15,42 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Rate/Month</t>
-  </si>
-  <si>
-    <t>No. of months</t>
-  </si>
-  <si>
-    <t>Period of Employment</t>
-  </si>
-  <si>
-    <t>Funding Charges</t>
-  </si>
-  <si>
-    <t>Office Assignment</t>
-  </si>
-  <si>
-    <t>jake denver alberio</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>4k</t>
-  </si>
-  <si>
-    <t>2024-01-15 to 2024-01-19</t>
-  </si>
-  <si>
-    <t>qasda</t>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asd123</t>
+  </si>
+  <si>
+    <t>2024-02-25 to 2024-02-28</t>
   </si>
 </sst>
 </file>
@@ -390,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,31 +408,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
